--- a/Data/datos_terreno_5.xlsx
+++ b/Data/datos_terreno_5.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Espesor [m]</t>
   </si>
@@ -39,6 +39,9 @@
   </si>
   <si>
     <t>Tipo Cálculo</t>
+  </si>
+  <si>
+    <t>nd</t>
   </si>
   <si>
     <t>d</t>
@@ -475,9 +478,7 @@
         <v>25</v>
       </c>
       <c r="F2" s="4"/>
-      <c r="G2" s="4">
-        <v>31</v>
-      </c>
+      <c r="G2" s="4"/>
       <c r="H2" s="5" t="s">
         <v>8</v>
       </c>
@@ -499,7 +500,7 @@
         <v>31</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Data/datos_terreno_5.xlsx
+++ b/Data/datos_terreno_5.xlsx
@@ -466,7 +466,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="4">
-        <v>20</v>
+        <v>3.5</v>
       </c>
       <c r="C2" s="4">
         <v>18</v>

--- a/Data/datos_terreno_5.xlsx
+++ b/Data/datos_terreno_5.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>Espesor [m]</t>
   </si>
@@ -42,9 +42,6 @@
   </si>
   <si>
     <t>nd</t>
-  </si>
-  <si>
-    <t>d</t>
   </si>
 </sst>
 </file>
@@ -494,13 +491,15 @@
       <c r="D3" s="4">
         <v>16</v>
       </c>
-      <c r="E3" s="4"/>
+      <c r="E3" s="4">
+        <v>30</v>
+      </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4">
         <v>31</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
